--- a/report_template/weekMaintance.xlsx
+++ b/report_template/weekMaintance.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="153">
   <si>
     <t>psi, 30±5</t>
   </si>
@@ -28,31 +28,16 @@
     <t>c.c/min, 500±50</t>
   </si>
   <si>
-    <t>c.c/min, 80±10</t>
-  </si>
-  <si>
     <t>VDC, 400~900</t>
   </si>
   <si>
-    <t>IN-Hg-A, &lt;10</t>
-  </si>
-  <si>
     <t>1.0±0.3</t>
   </si>
   <si>
-    <t>-50~150</t>
-  </si>
-  <si>
     <t>c.c/min, 650±65</t>
   </si>
   <si>
-    <t>mv, 2000~4400</t>
-  </si>
-  <si>
     <t>ppb, &lt;100</t>
-  </si>
-  <si>
-    <t>mv, 200~325mv</t>
   </si>
   <si>
     <t>mv, -50~200mv</t>
@@ -82,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CNTS/mv, AT ZERO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mv, 2500~4800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,19 +381,6 @@
   </si>
   <si>
     <r>
-      <t>連續測定分析儀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(PM10&amp;TSP)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">2.           </t>
     </r>
     <r>
@@ -764,6 +732,9 @@
   </si>
   <si>
     <t>b.           Bench TEMP.</t>
+  </si>
+  <si>
+    <t>c.            Mirror/wheel TEMP</t>
   </si>
   <si>
     <r>
@@ -781,12 +752,111 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (48±2 )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c.            Mirror/wheel TEMP</t>
+      <t xml:space="preserve"> (68±2 )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d.           CO MEAS</t>
+  </si>
+  <si>
+    <t>e.            CO REF</t>
+  </si>
+  <si>
+    <t>f.            MR RATIO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>確認無警訊顯示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>臭氧分析儀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.           O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> MEAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b.           O</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> REF</t>
+    </r>
+  </si>
+  <si>
+    <t>c.            Sample flow</t>
+  </si>
+  <si>
+    <t>d.           Photo lamp TEMP</t>
   </si>
   <si>
     <r>
@@ -804,26 +874,119 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (68±2 )</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d.           CO MEAS</t>
-  </si>
-  <si>
-    <t>e.            CO REF</t>
-  </si>
-  <si>
-    <t>f.            MR RATIO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>, 58±1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>更換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Filter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>功能性檢查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>           Sample flow</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>檢查點火功能正常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
         <rFont val="標楷體"/>
         <family val="4"/>
       </rPr>
@@ -832,28 +995,76 @@
   </si>
   <si>
     <r>
-      <t>臭氧分析儀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(O</t>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>           H</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>產生器分子篩變色檢查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>達</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>以下需更換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
@@ -862,7 +1073,225 @@
   </si>
   <si>
     <r>
-      <t>a.           O</t>
+      <t>氣體校正系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Calibrator)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>確認校正系統啟動正常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>管路積水檢查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>零氣體產生器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Zero air)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>洩水閥測試、自動排水功能正常</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>確認空壓機工作正常、積水排除</t>
+    </r>
+  </si>
+  <si>
+    <t>3.         Air presser</t>
+  </si>
+  <si>
+    <r>
+      <t>氮氧化物分析儀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(NOx)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>更換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Filter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>功能性檢查</t>
+    </r>
+  </si>
+  <si>
+    <t>b.           Ozone flow</t>
+  </si>
+  <si>
+    <t>c.            HVPS</t>
+  </si>
+  <si>
+    <t>d.           Rcell TEMP.</t>
+  </si>
+  <si>
+    <r>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 50±1</t>
+    </r>
+  </si>
+  <si>
+    <t>e.            PMT TEMP.</t>
+  </si>
+  <si>
+    <r>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 7±2</t>
+    </r>
+  </si>
+  <si>
+    <t>f.            Moly TEMP.</t>
+  </si>
+  <si>
+    <r>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 315±5</t>
+    </r>
+  </si>
+  <si>
+    <t>g.            Rcell press</t>
+  </si>
+  <si>
+    <t>h.           NO Slope</t>
+  </si>
+  <si>
+    <t>i.             NOx Slope</t>
+  </si>
+  <si>
+    <t>j.             NO Offset</t>
+  </si>
+  <si>
+    <t>k.           NOx Offset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+      </rPr>
+      <t>確認無警訊顯示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>二氧化硫分析儀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(SO</t>
     </r>
     <r>
       <rPr>
@@ -871,20 +1300,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> MEAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>b.           O</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>a.           Sample flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.           UV Lamp</t>
+  </si>
+  <si>
+    <t>c.            STR light</t>
+  </si>
+  <si>
+    <t>d.           DRK PMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.            DRK Lamp </t>
+  </si>
+  <si>
+    <r>
+      <t>f.            SO</t>
     </r>
     <r>
       <rPr>
@@ -893,31 +1338,47 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> REF</t>
-    </r>
-  </si>
-  <si>
-    <t>c.            Sample flow</t>
-  </si>
-  <si>
-    <t>d.           Photo lamp TEMP</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Slope</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g.            SO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Offset</t>
+    </r>
+  </si>
+  <si>
+    <t>h.           HVPS</t>
+  </si>
+  <si>
+    <t>i.             Rx Cell TMP</t>
+  </si>
+  <si>
+    <r>
       <t>℃</t>
     </r>
     <r>
@@ -926,538 +1387,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>, 58±1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>更換</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Filter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>功能性檢查</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>           Sample flow</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>檢查點火功能正常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>確認無警訊顯示</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>           H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>產生器分子篩變色檢查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>達</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>以下需更換</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>氣體校正系統</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Calibrator)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>確認校正系統啟動正常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>管路積水檢查</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>零氣體產生器</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Zero air)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>洩水閥測試、自動排水功能正常</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>確認空壓機工作正常、積水排除</t>
-    </r>
-  </si>
-  <si>
-    <t>3.         Air presser</t>
-  </si>
-  <si>
-    <r>
-      <t>氮氧化物分析儀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(NOx)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>更換</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Filter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2.         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>功能性檢查</t>
-    </r>
-  </si>
-  <si>
-    <t>b.           Ozone flow</t>
-  </si>
-  <si>
-    <t>c.            HVPS</t>
-  </si>
-  <si>
-    <t>d.           Rcell TEMP.</t>
-  </si>
-  <si>
-    <r>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, 50±1</t>
-    </r>
-  </si>
-  <si>
-    <t>e.            PMT TEMP.</t>
-  </si>
-  <si>
-    <r>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, 7±2</t>
-    </r>
-  </si>
-  <si>
-    <t>f.            Moly TEMP.</t>
-  </si>
-  <si>
-    <r>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, 315±5</t>
-    </r>
-  </si>
-  <si>
-    <t>g.            Rcell press</t>
-  </si>
-  <si>
-    <t>h.           NO Slope</t>
-  </si>
-  <si>
-    <t>i.             NOx Slope</t>
-  </si>
-  <si>
-    <t>j.             NO Offset</t>
-  </si>
-  <si>
-    <t>k.           NOx Offset</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3.         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-      </rPr>
-      <t>確認無警訊顯示</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>二氧化硫分析儀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(SO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>a.           Sample flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.           UV Lamp</t>
-  </si>
-  <si>
-    <t>c.            STR light</t>
-  </si>
-  <si>
-    <t>d.           DRK PMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e.            DRK Lamp </t>
-  </si>
-  <si>
-    <r>
-      <t>f.            SO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Slope</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>g.            SO</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Offset</t>
-    </r>
-  </si>
-  <si>
-    <t>h.           HVPS</t>
-  </si>
-  <si>
-    <t>i.             Rx Cell TMP</t>
-  </si>
-  <si>
-    <r>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>,50±1</t>
     </r>
   </si>
   <si>
     <t>j.             PMT TEMP.</t>
-  </si>
-  <si>
-    <r>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,9±2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1750,12 +1684,96 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>c.c/min, 80±15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN-Hg-A, 2~10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20~150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20~150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv, 1000~4900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mv, -50~200mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 7±2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (48±1 )</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNTS/mv, AT ZERO 2500~4800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNTS/mv, AT ZERO 2500~4800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2±0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>連續測定分析儀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (PM10&amp;PM2.5)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1954,6 +1972,12 @@
       <name val="標楷體"/>
       <family val="4"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2127,7 +2151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2211,86 +2235,95 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2640,504 +2673,506 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E130" sqref="A130:XFD130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="A1" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>90</v>
+      <c r="A4" s="39" t="s">
+        <v>82</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+        <v>84</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+      <c r="A7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>97</v>
+      <c r="A11" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
+        <v>90</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+        <v>91</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="15"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="17" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="22" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="6" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="17" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
+      <c r="D22" s="57" t="s">
+        <v>143</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="6" t="s">
-        <v>6</v>
+      <c r="D23" s="57" t="s">
+        <v>144</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+        <v>105</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>114</v>
+      <c r="A26" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="8"/>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="6" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="24" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="17" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="17" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="17" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="22" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="22" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F38" s="7"/>
     </row>
@@ -3145,331 +3180,333 @@
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
+      <c r="A42" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="4"/>
       <c r="E43" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
-        <v>66</v>
+      <c r="A45" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="31"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
       <c r="E46" s="8"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C48" s="8"/>
-      <c r="D48" s="6" t="s">
-        <v>71</v>
+      <c r="D48" s="58" t="s">
+        <v>148</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C49" s="8"/>
-      <c r="D49" s="6" t="s">
-        <v>73</v>
+      <c r="D49" s="58" t="s">
+        <v>65</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="6" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="6" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="E52" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
+        <v>69</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31" t="s">
-        <v>78</v>
+      <c r="A55" s="39" t="s">
+        <v>70</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
       <c r="E55" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+        <v>61</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="8"/>
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F58" s="7"/>
     </row>
     <row r="59" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
+      <c r="A60" s="39"/>
       <c r="B60" s="17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="31"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+    </row>
+    <row r="63" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="52"/>
+      <c r="B64" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-    </row>
-    <row r="63" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="45"/>
-      <c r="B64" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="8"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="45"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="19" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="54" t="s">
-        <v>140</v>
+      <c r="D65" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="52"/>
+      <c r="B66" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45"/>
-      <c r="B66" s="55" t="s">
-        <v>139</v>
-      </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="54" t="s">
-        <v>141</v>
+      <c r="D66" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="45"/>
-      <c r="B67" s="55" t="s">
-        <v>143</v>
+      <c r="A67" s="52"/>
+      <c r="B67" s="31" t="s">
+        <v>134</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="54" t="s">
-        <v>142</v>
+      <c r="D67" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="45"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20"/>
       <c r="D68" s="21"/>
@@ -3477,38 +3514,38 @@
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="45"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
+        <v>79</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
       <c r="E69" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="45"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="C70" s="55"/>
+      <c r="D70" s="55"/>
       <c r="E70" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
-      <c r="B71" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
       <c r="E71" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F71" s="16"/>
     </row>
@@ -3516,410 +3553,410 @@
     <row r="73" spans="1:6" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:6" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="29"/>
+      <c r="A75" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="4"/>
       <c r="E76" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
       <c r="E77" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
+        <v>15</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
       <c r="E78" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>45</v>
+      <c r="A79" s="29" t="s">
+        <v>152</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+        <v>40</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10"/>
-      <c r="B81" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
+      <c r="B81" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
       <c r="E81" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
-      <c r="B82" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
+      <c r="B82" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
       <c r="E82" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
     </row>
     <row r="84" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
+      <c r="A84" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
       <c r="E84" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="31"/>
+      <c r="A85" s="39"/>
       <c r="B85" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
       <c r="E86" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
       <c r="E87" s="8"/>
       <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
     </row>
     <row r="89" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="31" t="s">
-        <v>23</v>
+      <c r="A89" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
+        <v>45</v>
+      </c>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="8"/>
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="31"/>
+      <c r="A90" s="39"/>
       <c r="B90" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="31"/>
+      <c r="A91" s="39"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="8"/>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="31"/>
+      <c r="A92" s="39"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="8"/>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="31"/>
+      <c r="A93" s="39"/>
       <c r="B93" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
+        <v>135</v>
+      </c>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="31"/>
+      <c r="A94" s="39"/>
       <c r="B94" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
+        <v>136</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="31"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
       <c r="E95" s="8"/>
       <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="31"/>
-      <c r="B96" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="31"/>
+      <c r="A97" s="39"/>
       <c r="B97" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
+        <v>138</v>
+      </c>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
       <c r="E97" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="31"/>
+      <c r="A98" s="39"/>
       <c r="B98" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
+        <v>47</v>
+      </c>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
       <c r="E98" s="8"/>
       <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="31"/>
-      <c r="B99" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
       <c r="E99" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="31"/>
+      <c r="A100" s="39"/>
       <c r="B100" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
+        <v>49</v>
+      </c>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
       <c r="E100" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="31"/>
-      <c r="B101" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
+      <c r="A101" s="39"/>
+      <c r="B101" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
       <c r="E101" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="31"/>
+      <c r="A102" s="39"/>
       <c r="B102" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
+        <v>51</v>
+      </c>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
       <c r="E102" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="31"/>
-      <c r="B103" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
       <c r="E103" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="31"/>
+      <c r="A104" s="39"/>
       <c r="B104" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
+        <v>53</v>
+      </c>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
       <c r="E104" s="8"/>
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31"/>
+      <c r="A105" s="39"/>
       <c r="B105" s="12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C105" s="15"/>
       <c r="D105" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="31"/>
+      <c r="A106" s="39"/>
       <c r="B106" s="12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="31"/>
-      <c r="B107" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C107" s="50"/>
-      <c r="D107" s="50"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
       <c r="E107" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="31"/>
-      <c r="B108" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="50"/>
-      <c r="D108" s="50"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
       <c r="E108" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F108" s="7"/>
     </row>
     <row r="109" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="31"/>
-      <c r="B109" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="C109" s="50"/>
-      <c r="D109" s="50"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
       <c r="E109" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F109" s="7"/>
     </row>
@@ -3927,260 +3964,260 @@
     <row r="111" spans="1:6" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="1:6" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="113" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="29"/>
+      <c r="A113" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
     </row>
     <row r="114" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="30"/>
-      <c r="C114" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="4"/>
       <c r="E114" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="30"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
+      <c r="A115" s="47"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
       <c r="E115" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C116" s="41"/>
-      <c r="D116" s="42"/>
+      <c r="A116" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="44"/>
+      <c r="D116" s="45"/>
       <c r="E116" s="6"/>
       <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="31"/>
-      <c r="B117" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="38"/>
+      <c r="A117" s="39"/>
+      <c r="B117" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="34"/>
+      <c r="D117" s="35"/>
       <c r="E117" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="31"/>
-      <c r="B118" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
+      <c r="A118" s="39"/>
+      <c r="B118" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
       <c r="E118" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="31"/>
-      <c r="B119" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C119" s="37"/>
-      <c r="D119" s="38"/>
+      <c r="A119" s="39"/>
+      <c r="B119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="34"/>
+      <c r="D119" s="35"/>
       <c r="E119" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="31"/>
-      <c r="B120" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C120" s="37"/>
-      <c r="D120" s="38"/>
+      <c r="A120" s="39"/>
+      <c r="B120" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C120" s="34"/>
+      <c r="D120" s="35"/>
       <c r="E120" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F120" s="7"/>
     </row>
     <row r="121" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="31"/>
-      <c r="B121" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C121" s="41"/>
-      <c r="D121" s="42"/>
+      <c r="A121" s="39"/>
+      <c r="B121" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="44"/>
+      <c r="D121" s="45"/>
       <c r="E121" s="8"/>
       <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="31"/>
-      <c r="B122" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C122" s="37"/>
-      <c r="D122" s="38"/>
+      <c r="A122" s="39"/>
+      <c r="B122" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="34"/>
+      <c r="D122" s="35"/>
       <c r="E122" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="31"/>
-      <c r="B123" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C123" s="37"/>
-      <c r="D123" s="38"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="34"/>
+      <c r="D123" s="35"/>
       <c r="E123" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F123" s="7"/>
     </row>
     <row r="124" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="31"/>
-      <c r="B124" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C124" s="37"/>
-      <c r="D124" s="38"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="34"/>
+      <c r="D124" s="35"/>
       <c r="E124" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="31"/>
-      <c r="B125" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C125" s="37"/>
-      <c r="D125" s="38"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="34"/>
+      <c r="D125" s="35"/>
       <c r="E125" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F125" s="7"/>
     </row>
     <row r="126" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="31"/>
-      <c r="B126" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C126" s="37"/>
-      <c r="D126" s="38"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
       <c r="E126" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="31"/>
-      <c r="B127" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C127" s="37"/>
-      <c r="D127" s="38"/>
+      <c r="A127" s="39"/>
+      <c r="B127" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C127" s="34"/>
+      <c r="D127" s="35"/>
       <c r="E127" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6" s="5" customFormat="1" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="31"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="42"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="45"/>
       <c r="E128" s="8"/>
       <c r="F128" s="7"/>
     </row>
     <row r="129" spans="1:6" s="5" customFormat="1" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="31"/>
-      <c r="B129" s="36"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="38"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="35"/>
       <c r="E129" s="8"/>
       <c r="F129" s="7"/>
     </row>
     <row r="130" spans="1:6" s="5" customFormat="1" ht="21.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="31"/>
-      <c r="B130" s="36"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="38"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="35"/>
       <c r="E130" s="8"/>
       <c r="F130" s="7"/>
     </row>
     <row r="131" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="33"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
     </row>
     <row r="132" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="53"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
+      <c r="A132" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
     </row>
     <row r="133" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="52"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="53"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="53"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
     </row>
     <row r="134" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="52"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="53"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
     </row>
     <row r="135" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="53"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="53"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
     </row>
     <row r="136" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="52"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
     </row>
     <row r="137" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="52"/>
-      <c r="B137" s="53"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="53"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="53"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
     </row>
     <row r="138" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="139" spans="1:6" s="5" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4189,35 +4226,102 @@
       <c r="B140" s="26"/>
       <c r="C140" s="26"/>
       <c r="D140" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140" s="51"/>
-      <c r="F140" s="51"/>
+        <v>118</v>
+      </c>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
     </row>
     <row r="141" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C141" s="27"/>
       <c r="D141" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E141" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="F141" s="51"/>
+        <v>27</v>
+      </c>
+      <c r="E141" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="E141:F141"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="B132:F137"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A11:A24"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A89:A109"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="A116:A130"/>
@@ -4234,79 +4338,12 @@
     <mergeCell ref="B116:D116"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A89:A109"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B132:F137"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.51181102362204722" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
